--- a/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_Android.xlsx
+++ b/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_Android.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A66"/>
+  <dimension ref="A1:A78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,390 +494,474 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\core\di\AppModule.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ic_launcher-playstore.png</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\MainActivity.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\core\di\AppModule.kt</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\core\di\NetworkModule.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\AppNavGraph.kt</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\core\di\RepositoryModule.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\GargiApplication.kt</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\core\network\ApiKeyInterceptor.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\MainActivity.kt</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\core\util\UiState.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\core\di\NetworkModule.kt</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\GargiApi.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\core\di\RepositoryModule.kt</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\ApiEnvelope.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\core\network\ApiKeyInterceptor.kt</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\CategoriesDataDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\core\util\UiState.kt</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\CategoriesDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\GargiApi.kt</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\CategoriesResponseDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\ApiEnvelope.kt</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\EvaluateTextRequestDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\CategoriesDataDto.kt</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\EvaluateTextResponseDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\CategoriesDto.kt</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\HealthDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\CategoriesResponseDto.kt</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\HealthResult.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\EvaluateTextRequestDto.kt</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\EvaluateTextResponseDto.kt</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicObjDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\HealthDto.kt</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicResponseDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\HealthResponseDto.kt</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicSearchResponseDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\HealthResult.kt</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\repository\GargiRepository.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicDto.kt</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\repository\GargiRepositoryImpl.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicObjDto.kt</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\GargiAppRoot.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicResponseDto.kt</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\evaluate\EvaluateScreen.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicSearchResponseDto.kt</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\evaluate\EvaluateViewModel.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\repository\GargiRepository.kt</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\home\HomeScreen.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\repository\GargiRepositoryImpl.kt</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\home\HomeViewModel.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\GargiAppRoot.kt</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\topics\TopicsScreen.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\evaluate\EvaluateScreen.kt</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\topics\TopicsViewModel.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\evaluate\EvaluateViewModel.kt</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\theme\Theme.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\home\HomeScreen.kt</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\drawable\ic_launcher_background.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\home\HomeViewModel.kt</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\drawable\ic_launcher_foreground.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\splash\SplashScreen.kt</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-anydpi-v26\ic_launcher.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\topics\TopicsScreen.kt</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-anydpi-v26\ic_launcher_round.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\topics\TopicsViewModel.kt</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\theme\Theme.kt</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher_round.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\gargi_loading.json</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\gargi_splash.json</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher_round.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\drawable\ic_launcher_background.xml</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\drawable\ic_launcher_foreground.xml</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher_round.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-anydpi-v26\ic_launcher.xml</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-anydpi-v26\ic_launcher_round.xml</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher_round.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher.webp</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher_foreground.webp</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher_round.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher_round.webp</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\colors.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher.webp</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\strings.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher_foreground.webp</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\themes.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher_round.webp</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\backup_rules.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher.webp</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\data_extraction_rules.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher_foreground.webp</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\network_security_config.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher_round.webp</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\screens\evaluate\EvaluateScreen.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher.webp</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\screens\evaluate\EvaluateViewModel.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher_foreground.webp</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\screens\topics\TopicsScreen.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher_round.webp</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\screens\topics\TopicsViewModel.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher.webp</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\gradle\libs.versions.toml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher_foreground.webp</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\gradle\wrapper\gradle-wrapper.jar</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher_round.webp</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\colors.xml</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\strings.xml</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\themes.xml</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\backup_rules.xml</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\data_extraction_rules.xml</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\network_security_config.xml</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\screens\evaluate\EvaluateScreen.kt</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\screens\evaluate\EvaluateViewModel.kt</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\screens\topics\TopicsScreen.kt</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\screens\topics\TopicsViewModel.kt</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\gradle\libs.versions.toml</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\gradle\wrapper\gradle-wrapper.jar</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\gradle\wrapper\gradle-wrapper.properties</t>
         </is>

--- a/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_Android.xlsx
+++ b/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_Android.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A78"/>
+  <dimension ref="A1:A74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -921,47 +921,19 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\screens\evaluate\EvaluateScreen.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\gradle\libs.versions.toml</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\screens\evaluate\EvaluateViewModel.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\gradle\wrapper\gradle-wrapper.jar</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
-        <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\screens\topics\TopicsScreen.kt</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\screens\topics\TopicsViewModel.kt</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\gradle\libs.versions.toml</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\gradle\wrapper\gradle-wrapper.jar</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
         <is>
           <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\gradle\wrapper\gradle-wrapper.properties</t>
         </is>

--- a/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_Android.xlsx
+++ b/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_Android.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A74"/>
+  <dimension ref="A1:A75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,390 +550,397 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\core\util\UiState.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\core\stt\AndroidSpeechRecognizer.kt</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\GargiApi.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\core\util\UiState.kt</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\ApiEnvelope.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\GargiApi.kt</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\CategoriesDataDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\ApiEnvelope.kt</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\CategoriesDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\CategoriesDataDto.kt</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\CategoriesResponseDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\CategoriesDto.kt</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\EvaluateTextRequestDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\CategoriesResponseDto.kt</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\EvaluateTextResponseDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\EvaluateTextRequestDto.kt</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\HealthDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\EvaluateTextResponseDto.kt</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\HealthResponseDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\HealthDto.kt</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\HealthResult.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\HealthResponseDto.kt</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\HealthResult.kt</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicObjDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicDto.kt</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicResponseDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicObjDto.kt</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicSearchResponseDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicResponseDto.kt</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\repository\GargiRepository.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicSearchResponseDto.kt</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\repository\GargiRepositoryImpl.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\repository\GargiRepository.kt</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\GargiAppRoot.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\repository\GargiRepositoryImpl.kt</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\evaluate\EvaluateScreen.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\GargiAppRoot.kt</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\evaluate\EvaluateViewModel.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\evaluate\EvaluateScreen.kt</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\home\HomeScreen.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\evaluate\EvaluateViewModel.kt</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\home\HomeViewModel.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\home\HomeScreen.kt</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\splash\SplashScreen.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\home\HomeViewModel.kt</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\topics\TopicsScreen.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\splash\SplashScreen.kt</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\topics\TopicsViewModel.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\topics\TopicsScreen.kt</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\theme\Theme.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\topics\TopicsViewModel.kt</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\gargi_loading.json</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\theme\Theme.kt</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\gargi_splash.json</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\gargi_loading.json</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\drawable\ic_launcher_background.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\gargi_splash.json</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\drawable\ic_launcher_foreground.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\drawable\ic_launcher_background.xml</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-anydpi-v26\ic_launcher.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\drawable\ic_launcher_foreground.xml</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-anydpi-v26\ic_launcher_round.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-anydpi-v26\ic_launcher.xml</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-anydpi-v26\ic_launcher_round.xml</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher_foreground.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher.webp</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher_round.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher_foreground.webp</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher_round.webp</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher_foreground.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher.webp</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher_round.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher_foreground.webp</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher_round.webp</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher_foreground.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher.webp</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher_round.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher_foreground.webp</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher_round.webp</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher_foreground.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher.webp</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher_round.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher_foreground.webp</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher_round.webp</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher_foreground.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher.webp</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher_round.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher_foreground.webp</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\colors.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher_round.webp</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\strings.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\colors.xml</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\themes.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\strings.xml</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\backup_rules.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\themes.xml</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\data_extraction_rules.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\backup_rules.xml</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\network_security_config.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\data_extraction_rules.xml</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\gradle\libs.versions.toml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\network_security_config.xml</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\gradle\wrapper\gradle-wrapper.jar</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\gradle\libs.versions.toml</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\gradle\wrapper\gradle-wrapper.jar</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\gradle\wrapper\gradle-wrapper.properties</t>
         </is>

--- a/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_Android.xlsx
+++ b/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_Android.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A75"/>
+  <dimension ref="A1:A77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,243 +704,257 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\home\HomeViewModel.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\home\HomeUiState.kt</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\splash\SplashScreen.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\home\HomeViewModel.kt</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\topics\TopicsScreen.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\splash\SplashScreen.kt</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\topics\TopicsViewModel.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\topics\TopicsScreen.kt</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\theme\Theme.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\topics\TopicsViewModel.kt</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\gargi_loading.json</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\theme\Theme.kt</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\gargi_splash.json</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\gargi_loading.json</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\drawable\ic_launcher_background.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\gargi_splash.json</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\drawable\ic_launcher_foreground.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\drawable\ic_launcher_background.xml</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-anydpi-v26\ic_launcher.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\drawable\ic_launcher_foreground.xml</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-anydpi-v26\ic_launcher_round.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-anydpi-v26\ic_launcher.xml</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-anydpi-v26\ic_launcher_playstore.png</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher_foreground.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-anydpi-v26\ic_launcher_round.xml</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher_round.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher.webp</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher_foreground.webp</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher_foreground.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher_round.webp</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher_round.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher.webp</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher_foreground.webp</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher_foreground.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher_round.webp</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher_round.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher.webp</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher_foreground.webp</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher_foreground.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher_round.webp</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher_round.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher.webp</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher_foreground.webp</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher_foreground.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher_round.webp</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher_round.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher.webp</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\colors.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher_foreground.webp</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\strings.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher_round.webp</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\themes.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\colors.xml</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\backup_rules.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\strings.xml</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\data_extraction_rules.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\themes.xml</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\network_security_config.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\backup_rules.xml</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\gradle\libs.versions.toml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\data_extraction_rules.xml</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\gradle\wrapper\gradle-wrapper.jar</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\network_security_config.xml</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\gradle\libs.versions.toml</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\gradle\wrapper\gradle-wrapper.jar</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\gradle\wrapper\gradle-wrapper.properties</t>
         </is>

--- a/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_Android.xlsx
+++ b/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_Android.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A86"/>
+  <dimension ref="A1:A84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,397 +627,383 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\EvaluateRequest.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\GargiApi.kt</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\EvaluateTextResponseDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\ApiEnvelope.kt</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\GargiApi.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\CategoriesDataDto.kt</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\ApiEnvelope.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\CategoriesDto.kt</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\CategoriesDataDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\CategoriesResponseDto.kt</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\CategoriesDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\EvaluateTextRequestDto.kt</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\CategoriesResponseDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\EvaluateTextResponseDto.kt</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\EvaluateTextRequestDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\HealthDto.kt</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\EvaluateTextResponseDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\HealthResponseDto.kt</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\HealthDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\HealthResult.kt</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\HealthResponseDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicDto.kt</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\HealthResult.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicObjDto.kt</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicResponseDto.kt</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicObjDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicSearchResponseDto.kt</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicResponseDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\repository\GargiRepository.kt</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicSearchResponseDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\repository\GargiRepositoryImpl.kt</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\repository\GargiRepository.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\GargiAppRoot.kt</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\repository\GargiRepositoryImpl.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\evaluate\EvaluateScreen.kt</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\GargiAppRoot.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\evaluate\EvaluateUiState.kt</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\evaluate\EvaluateScreen.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\evaluate\EvaluateViewModel.kt</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\evaluate\EvaluateUiState.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\home\HomeScreen.kt</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\evaluate\EvaluateViewModel.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\home\HomeUiState.kt</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\home\HomeScreen.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\home\HomeViewModel.kt</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\home\HomeUiState.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\splash\SplashScreen.kt</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\home\HomeViewModel.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\topics\TopicsScreen.kt</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\splash\SplashScreen.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\topics\TopicsViewModel.kt</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\topics\TopicsScreen.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\theme\Theme.kt</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\topics\TopicsViewModel.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\gargi_loading.json</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\theme\Theme.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\gargi_splash.json</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\gargi_loading.json</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\drawable\ic_launcher_background.xml</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\gargi_splash.json</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\drawable\ic_launcher_foreground.xml</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\drawable\ic_launcher_background.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-anydpi-v26\ic_launcher.xml</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\drawable\ic_launcher_foreground.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-anydpi-v26\ic_launcher_playstore.png</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-anydpi-v26\ic_launcher.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-anydpi-v26\ic_launcher_round.xml</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-anydpi-v26\ic_launcher_playstore.png</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher.webp</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-anydpi-v26\ic_launcher_round.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher_foreground.webp</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher_round.webp</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher_foreground.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher.webp</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher_round.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher_foreground.webp</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher_round.webp</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher_foreground.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher.webp</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher_round.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher_foreground.webp</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher_round.webp</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher_foreground.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher.webp</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher_round.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher_foreground.webp</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher_round.webp</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher_foreground.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher.webp</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher_round.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher_foreground.webp</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher_round.webp</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher_foreground.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\colors.xml</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher_round.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\strings.xml</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\colors.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\themes.xml</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\strings.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\backup_rules.xml</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\themes.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\data_extraction_rules.xml</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
-        <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\backup_rules.xml</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\data_extraction_rules.xml</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
         <is>
           <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\network_security_config.xml</t>
         </is>

--- a/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_Android.xlsx
+++ b/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_Android.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A84"/>
+  <dimension ref="A1:A112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,525 +487,721 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\.gitignore</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\.gradle\config.properties</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\build.gradle.kts</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\.gradle\file-system.probe</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\proguard-rules.pro</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\.gradle\8.13\gc.properties</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\release\app-release.apk</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\.gradle\8.13\checksums\checksums.lock</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\release\app-release.rar</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\.gradle\8.13\checksums\md5-checksums.bin</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\release\output-metadata.json</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\.gradle\8.13\checksums\sha1-checksums.bin</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\release\baselineProfiles\0\app-release.dm</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\.gradle\8.13\executionHistory\executionHistory.bin</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\release\baselineProfiles\1\app-release.dm</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\.gradle\8.13\executionHistory\executionHistory.lock</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\AndroidManifest.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\.gradle\8.13\fileChanges\last-build.bin</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ic_launcher-playstore.png</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\.gradle\8.13\fileHashes\fileHashes.bin</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\core\di\AppModule.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\.gradle\8.13\fileHashes\fileHashes.lock</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\AppNavGraph.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\.gradle\8.13\fileHashes\resourceHashesCache.bin</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\GargiApplication.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\.gradle\vcs-1\gc.properties</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\MainActivity.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\.gitignore</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\core\di\NetworkModule.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\build.gradle.kts</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\core\di\RepositoryModule.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\google-services.json</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\core\network\ApiKeyInterceptor.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\proguard-rules.pro</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\core\stt\AndroidSpeechRecognizer.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\release\app-release.apk</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\core\stt\ContinuousSpeechRecognizer.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\release\app-release.rar</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\core\util\UiState.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\release\output-metadata.json</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\GargiApi.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\release\baselineProfiles\0\app-release.dm</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\ApiEnvelope.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\release\baselineProfiles\1\app-release.dm</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\CategoriesDataDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\AndroidManifest.xml</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\CategoriesDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ic_launcher-playstore.png</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\CategoriesResponseDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\core\di\AppModule.kt</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\EvaluateTextRequestDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\AppNavGraph.kt</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\EvaluateTextResponseDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\GargiApplication.kt</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\HealthDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\MainActivity.kt</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\HealthResponseDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\core\di\NetworkModule.kt</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\HealthResult.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\core\di\RepositoryModule.kt</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\core\network\ApiKeyInterceptor.kt</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicObjDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\core\stt\AndroidSpeechRecognizer.kt</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicResponseDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\core\stt\ContinuousSpeechRecognizer.kt</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicSearchResponseDto.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\core\stt\SpeechRecognizerController.kt</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\repository\GargiRepository.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\core\util\UiState.kt</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\repository\GargiRepositoryImpl.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\auth\AuthRepository.kt</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\GargiAppRoot.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\firestore\SessionHistoryRepository.kt</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\evaluate\EvaluateScreen.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\firestore\UserProfileRepository.kt</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\evaluate\EvaluateUiState.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\GargiApi.kt</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\evaluate\EvaluateViewModel.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\ApiEnvelope.kt</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\home\HomeScreen.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\CategoriesDataDto.kt</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\home\HomeUiState.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\CategoriesDto.kt</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\home\HomeViewModel.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\CategoriesResponseDto.kt</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\splash\SplashScreen.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\EvaluateTextRequestDto.kt</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\topics\TopicsScreen.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\EvaluateTextResponseDto.kt</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\topics\TopicsViewModel.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\HealthDto.kt</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\theme\Theme.kt</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\HealthResponseDto.kt</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\gargi_loading.json</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\HealthResult.kt</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\gargi_splash.json</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicDto.kt</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\drawable\ic_launcher_background.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicObjDto.kt</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\drawable\ic_launcher_foreground.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicResponseDto.kt</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-anydpi-v26\ic_launcher.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto\TopicSearchResponseDto.kt</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-anydpi-v26\ic_launcher_playstore.png</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\repository\GargiRepository.kt</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-anydpi-v26\ic_launcher_round.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\repository\GargiRepositoryImpl.kt</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\di\FirebaseModule.kt</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher_foreground.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\GargiAppRoot.kt</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher_round.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\auth\AuthUiState.kt</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\auth\AuthViewModel.kt</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher_foreground.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\auth\LoginScreen.kt</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher_round.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\auth\SignupScreen.kt</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\evaluate\EvaluateScreen.kt</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher_foreground.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\evaluate\EvaluateUiState.kt</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher_round.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\evaluate\EvaluateViewModel.kt</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\history\HistoryScreen.kt</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher_foreground.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\history\HistoryViewModel.kt</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher_round.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\home\HomeScreen.kt</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\home\HomeUiState.kt</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher_foreground.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\home\HomeViewModel.kt</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher_round.webp</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\splash\SplashScreen.kt</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\colors.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\topics\TopicsScreen.kt</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\strings.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\topics\TopicsViewModel.kt</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\themes.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\theme\Theme.kt</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\backup_rules.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\gargi_loading.json</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\data_extraction_rules.xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\gargi_splash.json</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\drawable\ic_launcher_background.xml</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\drawable\ic_launcher_foreground.xml</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-anydpi-v26\ic_launcher.xml</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-anydpi-v26\ic_launcher_playstore.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-anydpi-v26\ic_launcher_round.xml</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher_foreground.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi\ic_launcher_round.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher_foreground.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi\ic_launcher_round.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher_foreground.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi\ic_launcher_round.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher_foreground.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi\ic_launcher_round.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher_foreground.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi\ic_launcher_round.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\colors.xml</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\strings.xml</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values\themes.xml</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\backup_rules.xml</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\data_extraction_rules.xml</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
           <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml\network_security_config.xml</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\gradle\libs.versions.toml</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\gradle\wrapper\gradle-wrapper.jar</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\gradle\wrapper\gradle-wrapper.properties</t>
         </is>
       </c>
     </row>

--- a/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_Android.xlsx
+++ b/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_Android.xlsx
@@ -613,7 +613,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\release\app-release.rar</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\release\app-release_1.apk</t>
         </is>
       </c>
     </row>
